--- a/Installation & Service Reports/Glenmark/Glennmark Installations.xlsx
+++ b/Installation & Service Reports/Glenmark/Glennmark Installations.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AHU Details'!$A$1:$L$86</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Running Installations'!$A$1:$AG$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Running Installations'!$A$1:$AG$77</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="368">
   <si>
     <t>Common Facility</t>
   </si>
@@ -1112,6 +1112,27 @@
   </si>
   <si>
     <t>AHU_52_DXHD</t>
+  </si>
+  <si>
+    <t>AHU_50_CCD</t>
+  </si>
+  <si>
+    <t>AHU_35_CCH</t>
+  </si>
+  <si>
+    <t>AHU_72_CCH</t>
+  </si>
+  <si>
+    <t>S CleanCorridor</t>
+  </si>
+  <si>
+    <t>AHU_37_DXH</t>
+  </si>
+  <si>
+    <t>AHU_71_DXH</t>
+  </si>
+  <si>
+    <t>S Quarantine</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1362,242 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="355">
+  <dxfs count="380">
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -4958,9 +5214,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AG86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5138,10 +5394,18 @@
       <c r="V2" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="W2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
@@ -5217,10 +5481,18 @@
       <c r="V3" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="W3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
@@ -5296,10 +5568,18 @@
       <c r="V4" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -5376,10 +5656,18 @@
       <c r="V5" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+      <c r="W5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
@@ -5453,13 +5741,21 @@
       <c r="U6" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V6" s="2" t="e">
+      <c r="V6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z6" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
@@ -5536,10 +5832,18 @@
       <c r="V7" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
+      <c r="W7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
@@ -5613,13 +5917,21 @@
       <c r="U8" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V8" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
+      <c r="V8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
@@ -5696,10 +6008,18 @@
       <c r="V9" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="W9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
@@ -5776,10 +6096,18 @@
       <c r="V10" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
+      <c r="W10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
@@ -5853,13 +6181,21 @@
       <c r="U11" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V11" s="2" t="e">
+      <c r="V11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z11" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
@@ -5933,13 +6269,21 @@
       <c r="U12" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V12" s="2" t="e">
+      <c r="V12" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z12" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
@@ -6013,13 +6357,21 @@
       <c r="U13" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V13" s="2" t="e">
+      <c r="V13" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z13" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -6096,10 +6448,18 @@
       <c r="V14" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="W14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -6176,10 +6536,18 @@
       <c r="V15" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="W15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z15" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
@@ -6253,13 +6621,21 @@
       <c r="U16" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V16" s="2" t="e">
+      <c r="V16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z16" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
@@ -6336,10 +6712,18 @@
       <c r="V17" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
+      <c r="W17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
@@ -6413,13 +6797,21 @@
       <c r="U18" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V18" s="2" t="e">
+      <c r="V18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z18" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
@@ -6496,10 +6888,18 @@
       <c r="V19" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+      <c r="W19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z19" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
@@ -6576,10 +6976,18 @@
       <c r="V20" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="W20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
@@ -6656,10 +7064,18 @@
       <c r="V21" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
@@ -6736,10 +7152,18 @@
       <c r="V22" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="W22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
@@ -6816,10 +7240,18 @@
       <c r="V23" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
+      <c r="W23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
@@ -6896,10 +7328,18 @@
       <c r="V24" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
+      <c r="W24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
@@ -6976,10 +7416,18 @@
       <c r="V25" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
+      <c r="W25" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z25" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
@@ -7056,10 +7504,18 @@
       <c r="V26" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
+      <c r="W26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z26" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
@@ -7136,10 +7592,18 @@
       <c r="V27" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
+      <c r="W27" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z27" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
@@ -7213,13 +7677,21 @@
       <c r="U28" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V28" s="2" t="e">
+      <c r="V28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z28" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
@@ -7296,10 +7768,18 @@
       <c r="V29" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
+      <c r="W29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
@@ -7376,10 +7856,18 @@
       <c r="V30" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
+      <c r="W30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z30" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
@@ -7456,10 +7944,18 @@
       <c r="V31" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
+      <c r="W31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
@@ -7536,10 +8032,18 @@
       <c r="V32" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="W32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z32" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
@@ -7616,10 +8120,18 @@
       <c r="V33" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="W33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
@@ -7696,10 +8208,18 @@
       <c r="V34" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="W34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z34" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
@@ -7776,10 +8296,18 @@
       <c r="V35" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
+      <c r="W35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z35" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
@@ -7856,10 +8384,18 @@
       <c r="V36" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="W36" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z36" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
@@ -7936,10 +8472,18 @@
       <c r="V37" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="W37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z37" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
@@ -8016,10 +8560,18 @@
       <c r="V38" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="W38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z38" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
@@ -8096,10 +8648,18 @@
       <c r="V39" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
+      <c r="W39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z39" s="2" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
@@ -8176,10 +8736,18 @@
       <c r="V40" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+      <c r="W40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z40" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
@@ -8256,10 +8824,18 @@
       <c r="V41" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
+      <c r="W41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z41" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
@@ -8336,10 +8912,18 @@
       <c r="V42" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
+      <c r="W42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z42" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
@@ -8416,10 +9000,18 @@
       <c r="V43" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
+      <c r="W43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z43" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
@@ -8496,10 +9088,18 @@
       <c r="V44" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
+      <c r="W44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z44" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
@@ -8576,10 +9176,18 @@
       <c r="V45" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
+      <c r="W45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z45" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
@@ -8656,10 +9264,18 @@
       <c r="V46" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="W46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z46" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
@@ -8736,10 +9352,18 @@
       <c r="V47" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="W47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z47" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
@@ -8816,10 +9440,18 @@
       <c r="V48" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="W48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z48" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
@@ -8896,10 +9528,18 @@
       <c r="V49" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="W49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z49" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
@@ -8976,10 +9616,18 @@
       <c r="V50" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="W50" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X50" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z50" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
@@ -9056,10 +9704,18 @@
       <c r="V51" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="W51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z51" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
@@ -9136,10 +9792,18 @@
       <c r="V52" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
+      <c r="W52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z52" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
@@ -9212,10 +9876,18 @@
       <c r="V53" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
+      <c r="W53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z53" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
@@ -9288,10 +9960,18 @@
       <c r="V54" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
+      <c r="W54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z54" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
@@ -9364,10 +10044,18 @@
       <c r="V55" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
+      <c r="W55" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X55" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z55" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
@@ -9440,10 +10128,18 @@
       <c r="V56" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
+      <c r="W56" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X56" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z56" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
@@ -9516,10 +10212,18 @@
       <c r="V57" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
+      <c r="W57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z57" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
@@ -9583,13 +10287,21 @@
       <c r="U58" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="V58" s="2" t="e">
+      <c r="V58" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z58" s="2" t="e">
         <v>#N/A</v>
       </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
@@ -9656,10 +10368,18 @@
       <c r="V59" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
+      <c r="W59" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
@@ -9726,10 +10446,18 @@
       <c r="V60" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
+      <c r="W60" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
@@ -9796,10 +10524,18 @@
       <c r="V61" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
+      <c r="W61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
@@ -9866,10 +10602,18 @@
       <c r="V62" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
+      <c r="W62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
@@ -9936,10 +10680,18 @@
       <c r="V63" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
+      <c r="W63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
@@ -10001,13 +10753,21 @@
       <c r="U64" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V64" s="2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
+      <c r="V64" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z64" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
@@ -10072,10 +10832,18 @@
       <c r="V65" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
+      <c r="W65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z65" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
@@ -10126,10 +10894,18 @@
       <c r="V66" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
+      <c r="W66" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z66" s="2" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
@@ -10180,10 +10956,18 @@
       <c r="V67" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
+      <c r="W67" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y67" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z67" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
@@ -10234,10 +11018,18 @@
       <c r="V68" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
+      <c r="W68" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X68" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y68" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z68" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
@@ -10282,10 +11074,18 @@
       <c r="V69" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
+      <c r="W69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X69" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y69" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z69" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
@@ -10330,10 +11130,18 @@
       <c r="V70" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
+      <c r="W70" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X70" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y70" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z70" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
@@ -10378,10 +11186,18 @@
       <c r="V71" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
+      <c r="W71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y71" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z71" s="2" t="s">
+        <v>321</v>
+      </c>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
@@ -10426,10 +11242,18 @@
       <c r="V72" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
+      <c r="W72" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X72" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y72" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z72" s="2" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
@@ -10438,6 +11262,276 @@
       <c r="AF72" s="2"/>
       <c r="AG72" s="2"/>
     </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>279</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="3">
+        <f>VLOOKUP(A:A,'AHU Details'!D:G,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="2"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>280</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="3">
+        <f>VLOOKUP(A:A,'AHU Details'!D:G,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z74" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="2"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>305</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <f>VLOOKUP(A:A,'AHU Details'!D:G,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z75" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>282</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="3">
+        <f>VLOOKUP(A:A,'AHU Details'!D:G,4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="X76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="Z76" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>313</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="3">
+        <f>VLOOKUP(A:A,'AHU Details'!D:G,4,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="X77" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y77" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z77" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="2"/>
+    </row>
     <row r="81" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I81" s="19" t="s">
         <v>326</v>
@@ -10477,1106 +11571,1410 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A73:I1048576 L73:XFD1048576 AH1:XFD1 M2 L6:R6 M5 L11:R11 M9:M10 M14:M15 L19:Q19 M17:M18 M27:N27 L64:P64 L23:Q23 L20:L22 M35:M36 M42:M45 N40:O40 M47:M48 L63 L13:R13 L12:M12 P12 Q17:R17 L24:M26 M28:M31 M53:M54 Q24 Q59 R12 R18 P25 R25 A1:G52 X3:XFD52 E53:E57 J46:J57 H41:H57 A56:D57 X56:XFD57 F56:G57 I50:I57 P26:R26 K36:K62 L49:L58 N58:O62 L8:S8 S11:S13 L16:S16 S19:S20 S23:S28 S58:S59 P54:R54 P27:Q53 P58:R58 M55:Q57 T2 T35:T36 T38 T42:T48 T64 S66:T66 T5 W2:XFD2 U11 U13 U19:U27 T40:U40 U58:U59 T6:W6 W3:W5 U8:W8 W7 V11:W13 W9:W10 U16:W16 W14:W15 V18:W18 W17 V28:W28 W19:W27 V58:W58 W29:W57 V64:W64 W59:W63 W65:W72">
-    <cfRule type="containsText" dxfId="354" priority="434" operator="containsText" text="OK">
+  <conditionalFormatting sqref="A78:I1048576 L78:XFD1048576 AH1:XFD1 M2 L6:R6 M5 L11:R11 M9:M10 M14:M15 L19:Q19 M17:M18 M27:N27 L64:P64 L23:Q23 L20:L22 M35:M36 M42:M45 N40:O40 M47:M48 L63 L13:R13 L12:M12 P12 Q17:R17 L24:M26 M28:M31 M53:M54 Q24 Q59 R12 R18 P25 R25 A1:G52 E53:E57 J46:J57 H41:H57 A56:D57 AA56:XFD57 F56:G57 I50:I57 P26:R26 K36:K62 L49:L58 N58:O62 L8:S8 S11:S13 L16:S16 S19:S20 S23:S28 S58:S59 P54:R54 P27:Q53 P58:R58 M55:Q57 T2 T35:T36 T38 T42:T48 T64 S66:T66 T5 AA2:XFD52 U11 U19:U27 T40:U40 U58:U59 U8:V8 V58:W58 V64:W64 W76 U13:W13 V11:X12 W69:X69 W73:X73 W25:X26 Z39 Y59 X66:Z66 Y72:Z72 X77:Y77 T6:Z6 Z11:Z13 U16:Z16 V18:Z18 W23:Y24 V28:Z28 W27:Y27 W19:Y19 Z58">
+    <cfRule type="containsText" dxfId="379" priority="524" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="435" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="378" priority="525" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A73:I1048576 L73:XFD1048576 AH1:XFD1 M2 L6:R6 M5 L11:R11 M9:M10 M14:M15 L19:Q19 M17:M18 M27:N27 L64:P64 L23:Q23 L20:L22 M35:M36 M42:M45 N40:O40 M47:M48 L63 L13:R13 L12:M12 P12 Q17:R17 L24:M26 M28:M31 M53:M54 Q24 Q59 R12 R18 P25 R25 A1:G52 X3:XFD52 E53:E57 J46:J57 H41:H57 A56:D57 X56:XFD57 F56:G57 I50:I57 P26:R26 K36:K62 L49:L58 N58:O62 L8:S8 S11:S13 L16:S16 S19:S20 S23:S28 S58:S59 P54:R54 P27:Q53 P58:R58 M55:Q57 T2 T35:T36 T38 T42:T48 T64 S66:T66 T5 W2:XFD2 U11 U13 U19:U27 T40:U40 U58:U59 T6:W6 W3:W5 U8:W8 W7 V11:W13 W9:W10 U16:W16 W14:W15 V18:W18 W17 V28:W28 W19:W27 V58:W58 W29:W57 V64:W64 W59:W63 W65:W72">
-    <cfRule type="containsText" dxfId="352" priority="431" operator="containsText" text="Network Signal Issue">
+  <conditionalFormatting sqref="A78:I1048576 L78:XFD1048576 AH1:XFD1 M2 L6:R6 M5 L11:R11 M9:M10 M14:M15 L19:Q19 M17:M18 M27:N27 L64:P64 L23:Q23 L20:L22 M35:M36 M42:M45 N40:O40 M47:M48 L63 L13:R13 L12:M12 P12 Q17:R17 L24:M26 M28:M31 M53:M54 Q24 Q59 R12 R18 P25 R25 A1:G52 E53:E57 J46:J57 H41:H57 A56:D57 AA56:XFD57 F56:G57 I50:I57 P26:R26 K36:K62 L49:L58 N58:O62 L8:S8 S11:S13 L16:S16 S19:S20 S23:S28 S58:S59 P54:R54 P27:Q53 P58:R58 M55:Q57 T2 T35:T36 T38 T42:T48 T64 S66:T66 T5 AA2:XFD52 U11 U19:U27 T40:U40 U58:U59 U8:V8 V58:W58 V64:W64 W76 U13:W13 V11:X12 W69:X69 W73:X73 W25:X26 Z39 Y59 X66:Z66 Y72:Z72 X77:Y77 T6:Z6 Z11:Z13 U16:Z16 V18:Z18 W23:Y24 V28:Z28 W27:Y27 W19:Y19 Z58">
+    <cfRule type="containsText" dxfId="377" priority="521" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="432" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="376" priority="522" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="433" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="375" priority="523" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H7 H9:H10 H14:H15 H17:H22 H24 H27:H34 H36:H39 I1">
-    <cfRule type="containsText" dxfId="349" priority="429" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="374" priority="519" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="430" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="373" priority="520" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H7 H9:H10 H14:H15 H17:H22 H24 H27:H34 H36:H39 I1">
-    <cfRule type="containsText" dxfId="347" priority="426" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="372" priority="516" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="427" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="371" priority="517" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",H1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="428" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="370" priority="518" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:D55 X53:XFD55 F53:G55">
-    <cfRule type="containsText" dxfId="344" priority="424" operator="containsText" text="OK">
+  <conditionalFormatting sqref="A53:D55 AA53:XFD55 F53:G55">
+    <cfRule type="containsText" dxfId="369" priority="514" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="343" priority="425" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="368" priority="515" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A53:D55 X53:XFD55 F53:G55">
-    <cfRule type="containsText" dxfId="342" priority="421" operator="containsText" text="Network Signal Issue">
+  <conditionalFormatting sqref="A53:D55 AA53:XFD55 F53:G55">
+    <cfRule type="containsText" dxfId="367" priority="511" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="422" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="366" priority="512" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",A53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="423" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="365" priority="513" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",A53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40 H35 H25:H26 H23 H16 H11:H13 H8">
-    <cfRule type="containsText" dxfId="339" priority="404" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="364" priority="494" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="405" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="363" priority="495" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40 H35 H25:H26 H23 H16 H11:H13 H8">
-    <cfRule type="containsText" dxfId="337" priority="401" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="362" priority="491" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="402" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="361" priority="492" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",H8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="335" priority="403" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="360" priority="493" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",H8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3 I5:I10 I12 I15:I22 I24:I27 I29:I39 I41:I49">
-    <cfRule type="containsText" dxfId="334" priority="399" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="359" priority="489" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="400" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="358" priority="490" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I3 I5:I10 I12 I15:I22 I24:I27 I29:I39 I41:I49">
-    <cfRule type="containsText" dxfId="332" priority="396" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="357" priority="486" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="331" priority="397" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="356" priority="487" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",I2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="398" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="355" priority="488" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40 I28 I23 I13:I14 I11 I4">
-    <cfRule type="containsText" dxfId="329" priority="394" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="354" priority="484" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="395" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="353" priority="485" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40 I28 I23 I13:I14 I11 I4">
-    <cfRule type="containsText" dxfId="327" priority="391" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="352" priority="481" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="392" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="351" priority="482" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",I4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="393" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="350" priority="483" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",I4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73:J1048576">
-    <cfRule type="containsText" dxfId="324" priority="359" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",J73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="360" operator="containsText" text="MCB OFF">
-      <formula>NOT(ISERROR(SEARCH("MCB OFF",J73)))</formula>
+  <conditionalFormatting sqref="J78:J1048576">
+    <cfRule type="containsText" dxfId="349" priority="449" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",J78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="348" priority="450" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",J78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J73:J1048576">
-    <cfRule type="containsText" dxfId="322" priority="356" operator="containsText" text="Network Signal Issue">
-      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="357" operator="containsText" text="Communication issue from server">
-      <formula>NOT(ISERROR(SEARCH("Communication issue from server",J73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="320" priority="358" operator="containsText" text="Communication issue with module">
-      <formula>NOT(ISERROR(SEARCH("Communication issue with module",J73)))</formula>
+  <conditionalFormatting sqref="J78:J1048576">
+    <cfRule type="containsText" dxfId="347" priority="446" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="447" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",J78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="448" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",J78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="containsText" dxfId="319" priority="354" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="344" priority="444" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="355" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="343" priority="445" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="containsText" dxfId="317" priority="351" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="342" priority="441" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="316" priority="352" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="341" priority="442" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="353" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="340" priority="443" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H62">
-    <cfRule type="containsText" dxfId="314" priority="319" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="339" priority="409" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="320" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="338" priority="410" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",H58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58:H62">
-    <cfRule type="containsText" dxfId="312" priority="316" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="337" priority="406" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",H58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="317" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="336" priority="407" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",H58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="318" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="335" priority="408" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",H58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:J44 J21:J34 J17:J19 J14:J15 J12 J9:J10 J7 J2:J5">
-    <cfRule type="containsText" dxfId="309" priority="329" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="334" priority="419" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="308" priority="330" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="333" priority="420" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:J44 J21:J34 J17:J19 J14:J15 J12 J9:J10 J7 J2:J5">
-    <cfRule type="containsText" dxfId="307" priority="326" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="332" priority="416" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="327" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="331" priority="417" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",J2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="328" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="330" priority="418" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E62">
-    <cfRule type="containsText" dxfId="304" priority="324" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="329" priority="414" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="325" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="328" priority="415" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E62">
-    <cfRule type="containsText" dxfId="302" priority="321" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="327" priority="411" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="322" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="326" priority="412" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",E58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="300" priority="323" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="325" priority="413" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",E58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:D62 X58:XFD62 F58:G62">
-    <cfRule type="containsText" dxfId="299" priority="314" operator="containsText" text="OK">
+  <conditionalFormatting sqref="A58:D62 AA58:XFD62 F58:G62">
+    <cfRule type="containsText" dxfId="324" priority="404" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",A58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="315" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="323" priority="405" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",A58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A58:D62 X58:XFD62 F58:G62">
-    <cfRule type="containsText" dxfId="297" priority="311" operator="containsText" text="Network Signal Issue">
+  <conditionalFormatting sqref="A58:D62 AA58:XFD62 F58:G62">
+    <cfRule type="containsText" dxfId="322" priority="401" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",A58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="296" priority="312" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="321" priority="402" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",A58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="313" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="320" priority="403" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",A58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I62">
-    <cfRule type="containsText" dxfId="294" priority="309" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="319" priority="399" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",I58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="310" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="318" priority="400" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",I58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58:I62">
-    <cfRule type="containsText" dxfId="292" priority="306" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="317" priority="396" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",I58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="291" priority="307" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="316" priority="397" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",I58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="308" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="315" priority="398" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",I58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:J62">
-    <cfRule type="containsText" dxfId="289" priority="304" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="314" priority="394" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",J58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="305" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="313" priority="395" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",J58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J58:J62">
-    <cfRule type="containsText" dxfId="287" priority="301" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="312" priority="391" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="302" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="311" priority="392" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",J58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="303" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="310" priority="393" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",J58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45 J35 J20 J16 J13 J11 J8 J6">
-    <cfRule type="containsText" dxfId="284" priority="299" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="309" priority="389" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="300" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="308" priority="390" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45 J35 J20 J16 J13 J11 J8 J6">
-    <cfRule type="containsText" dxfId="282" priority="296" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="307" priority="386" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="297" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="306" priority="387" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="280" priority="298" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="305" priority="388" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:K78 K91:K1048576">
-    <cfRule type="containsText" dxfId="279" priority="294" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",K73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="295" operator="containsText" text="MCB OFF">
-      <formula>NOT(ISERROR(SEARCH("MCB OFF",K73)))</formula>
+  <conditionalFormatting sqref="K78 K91:K1048576">
+    <cfRule type="containsText" dxfId="304" priority="384" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",K78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="303" priority="385" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",K78)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K73:K78 K91:K1048576">
-    <cfRule type="containsText" dxfId="277" priority="291" operator="containsText" text="Network Signal Issue">
-      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="292" operator="containsText" text="Communication issue from server">
-      <formula>NOT(ISERROR(SEARCH("Communication issue from server",K73)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="293" operator="containsText" text="Communication issue with module">
-      <formula>NOT(ISERROR(SEARCH("Communication issue with module",K73)))</formula>
+  <conditionalFormatting sqref="K78 K91:K1048576">
+    <cfRule type="containsText" dxfId="302" priority="381" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="382" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",K78)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="300" priority="383" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",K78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:AG1">
-    <cfRule type="containsText" dxfId="274" priority="289" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="299" priority="379" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="290" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="298" priority="380" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:AG1">
-    <cfRule type="containsText" dxfId="272" priority="286" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="297" priority="376" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="271" priority="287" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="296" priority="377" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",K1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="288" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="295" priority="378" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",K1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="containsText" dxfId="269" priority="254" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="294" priority="344" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="268" priority="255" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="293" priority="345" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",H63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63:H64">
-    <cfRule type="containsText" dxfId="267" priority="251" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="292" priority="341" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",H63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="252" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="291" priority="342" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",H63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="253" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="290" priority="343" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",H63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:K90">
-    <cfRule type="containsText" dxfId="264" priority="269" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="289" priority="359" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="270" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="288" priority="360" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",K79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K79:K90">
-    <cfRule type="containsText" dxfId="262" priority="266" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="287" priority="356" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="267" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="286" priority="357" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",K79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="268" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="285" priority="358" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",K79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K34 K14:K15 K9:K10 K7 K2:K5">
-    <cfRule type="containsText" dxfId="259" priority="264" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="284" priority="354" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="265" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="283" priority="355" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:K34 K14:K15 K9:K10 K7 K2:K5">
-    <cfRule type="containsText" dxfId="257" priority="261" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="282" priority="351" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="262" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="281" priority="352" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",K2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="263" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="280" priority="353" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E64">
-    <cfRule type="containsText" dxfId="254" priority="259" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="279" priority="349" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="260" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="278" priority="350" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E64">
-    <cfRule type="containsText" dxfId="252" priority="256" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="277" priority="346" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="251" priority="257" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="276" priority="347" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",E63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="258" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="275" priority="348" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",E63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D64 X63:XFD64 F63:G64">
-    <cfRule type="containsText" dxfId="249" priority="249" operator="containsText" text="OK">
+  <conditionalFormatting sqref="A63:D64 AA63:XFD64 F63:G64">
+    <cfRule type="containsText" dxfId="274" priority="339" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",A63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="250" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="273" priority="340" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A63:D64 X63:XFD64 F63:G64">
-    <cfRule type="containsText" dxfId="247" priority="246" operator="containsText" text="Network Signal Issue">
+  <conditionalFormatting sqref="A63:D64 AA63:XFD64 F63:G64">
+    <cfRule type="containsText" dxfId="272" priority="336" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",A63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="247" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="271" priority="337" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",A63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="248" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="270" priority="338" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",A63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I64">
-    <cfRule type="containsText" dxfId="244" priority="244" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="269" priority="334" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="245" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="268" priority="335" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",I63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63:I64">
-    <cfRule type="containsText" dxfId="242" priority="241" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="267" priority="331" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="242" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="266" priority="332" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",I63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="243" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="265" priority="333" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",I63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J64">
-    <cfRule type="containsText" dxfId="239" priority="239" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="264" priority="329" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",J63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="240" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="263" priority="330" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",J63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J63:J64">
-    <cfRule type="containsText" dxfId="237" priority="236" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="262" priority="326" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="237" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="261" priority="327" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",J63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="238" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="260" priority="328" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",J63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K64">
-    <cfRule type="containsText" dxfId="234" priority="234" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="259" priority="324" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="235" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="258" priority="325" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",K63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K63:K64">
-    <cfRule type="containsText" dxfId="232" priority="231" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="257" priority="321" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="231" priority="232" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="256" priority="322" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",K63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="233" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="255" priority="323" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",K63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="229" priority="229" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="254" priority="319" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="230" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="253" priority="320" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",K35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35">
-    <cfRule type="containsText" dxfId="227" priority="226" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="252" priority="316" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="227" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="251" priority="317" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",K35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="228" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="250" priority="318" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",K35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16 K11:K13 K8 K6">
-    <cfRule type="containsText" dxfId="224" priority="224" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="249" priority="314" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="223" priority="225" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="248" priority="315" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K16 K11:K13 K8 K6">
-    <cfRule type="containsText" dxfId="222" priority="221" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="247" priority="311" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="222" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="246" priority="312" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",K6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="220" priority="223" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="245" priority="313" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",K6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L62 L27:L48 L17:L18 L14:L15 L9:L10 L7 L2:L5">
-    <cfRule type="containsText" dxfId="219" priority="219" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="244" priority="309" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="220" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="243" priority="310" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:L62 L27:L48 L17:L18 L14:L15 L9:L10 L7 L2:L5">
-    <cfRule type="containsText" dxfId="217" priority="216" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="242" priority="306" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="217" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="241" priority="307" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="215" priority="218" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="240" priority="308" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58:M63 M49:M52 M46 M37:M41 M32:M34 M20:M22 M7 M3:M4">
-    <cfRule type="containsText" dxfId="214" priority="214" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="239" priority="304" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",M3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="215" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="238" priority="305" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M58:M63 M49:M52 M46 M37:M41 M32:M34 M20:M22 M7 M3:M4">
-    <cfRule type="containsText" dxfId="212" priority="211" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="237" priority="301" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",M3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="211" priority="212" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="236" priority="302" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",M3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="213" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="235" priority="303" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",M3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63 N41:N54 N28:N39 N24:N26 N20:N22 N17:N18 N14:N15 N12 N9:N10 N7 N2:N5">
-    <cfRule type="containsText" dxfId="209" priority="209" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="234" priority="299" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="210" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="233" priority="300" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N63 N41:N54 N28:N39 N24:N26 N20:N22 N17:N18 N14:N15 N12 N9:N10 N7 N2:N5">
-    <cfRule type="containsText" dxfId="207" priority="206" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="232" priority="296" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",N2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="207" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="231" priority="297" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",N2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="208" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="230" priority="298" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",N2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O63 O41:O54 O24:O39 O20:O22 O17:O18 O14:O15 O12 O9:O10 O7 O2:O5">
-    <cfRule type="containsText" dxfId="204" priority="204" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="229" priority="294" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",O2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="205" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="228" priority="295" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O63 O41:O54 O24:O39 O20:O22 O17:O18 O14:O15 O12 O9:O10 O7 O2:O5">
-    <cfRule type="containsText" dxfId="202" priority="201" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="227" priority="291" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",O2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="202" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="226" priority="292" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",O2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="203" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="225" priority="293" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",O2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59:P63 P24 P20:P22 P17:P18 P14:P15 P9:P10 P7 P2:P5">
-    <cfRule type="containsText" dxfId="199" priority="199" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="224" priority="289" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="200" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="223" priority="290" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P59:P63 P24 P20:P22 P17:P18 P14:P15 P9:P10 P7 P2:P5">
-    <cfRule type="containsText" dxfId="197" priority="196" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="222" priority="286" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="196" priority="197" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="221" priority="287" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",P2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="198" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="220" priority="288" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",P2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q60:Q64 Q25 Q20:Q22 Q18 Q14:Q15 Q12 Q9:Q10 Q7 Q2:Q5">
-    <cfRule type="containsText" dxfId="194" priority="194" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="219" priority="284" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="195" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="218" priority="285" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q60:Q64 Q25 Q20:Q22 Q18 Q14:Q15 Q12 Q9:Q10 Q7 Q2:Q5">
-    <cfRule type="containsText" dxfId="192" priority="191" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="217" priority="281" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="192" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="216" priority="282" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",Q2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="193" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="215" priority="283" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",Q2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:P67 R66:R67">
-    <cfRule type="containsText" dxfId="189" priority="189" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="214" priority="279" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",L65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="190" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="213" priority="280" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",L65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65:P67 R66:R67">
-    <cfRule type="containsText" dxfId="187" priority="186" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="212" priority="276" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",L65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="187" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="211" priority="277" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",L65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="188" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="210" priority="278" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",L65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H67">
-    <cfRule type="containsText" dxfId="184" priority="179" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="209" priority="269" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="180" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="208" priority="270" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H67">
-    <cfRule type="containsText" dxfId="182" priority="176" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="207" priority="266" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",H65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="177" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="206" priority="267" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",H65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="178" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="205" priority="268" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:E67">
-    <cfRule type="containsText" dxfId="179" priority="184" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="204" priority="274" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="185" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="203" priority="275" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",E65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:E67">
-    <cfRule type="containsText" dxfId="177" priority="181" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="202" priority="271" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",E65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="176" priority="182" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="201" priority="272" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",E65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="183" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="200" priority="273" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",E65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:D67 X65:XFD67 F65:G67">
-    <cfRule type="containsText" dxfId="174" priority="174" operator="containsText" text="OK">
+  <conditionalFormatting sqref="A65:D67 AA65:XFD67 F65:G67">
+    <cfRule type="containsText" dxfId="199" priority="264" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",A65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="175" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="198" priority="265" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",A65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:D67 X65:XFD67 F65:G67">
-    <cfRule type="containsText" dxfId="172" priority="171" operator="containsText" text="Network Signal Issue">
+  <conditionalFormatting sqref="A65:D67 AA65:XFD67 F65:G67">
+    <cfRule type="containsText" dxfId="197" priority="261" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",A65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="172" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="196" priority="262" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",A65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="173" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="195" priority="263" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",A65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I67">
-    <cfRule type="containsText" dxfId="169" priority="169" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="194" priority="259" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",I65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="170" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="193" priority="260" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",I65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I67">
-    <cfRule type="containsText" dxfId="167" priority="166" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="192" priority="256" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",I65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="167" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="191" priority="257" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",I65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="168" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="190" priority="258" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",I65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65:J67">
-    <cfRule type="containsText" dxfId="164" priority="164" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="189" priority="254" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",J65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="165" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="188" priority="255" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",J65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J65:J67">
-    <cfRule type="containsText" dxfId="162" priority="161" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="187" priority="251" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="162" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="186" priority="252" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",J65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="163" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="185" priority="253" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",J65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:K67">
-    <cfRule type="containsText" dxfId="159" priority="159" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="184" priority="249" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="160" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="183" priority="250" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",K65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K65:K67">
-    <cfRule type="containsText" dxfId="157" priority="156" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="182" priority="246" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="157" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="181" priority="247" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",K65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="158" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="180" priority="248" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",K65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q65:Q67">
-    <cfRule type="containsText" dxfId="154" priority="154" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="179" priority="244" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",Q65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="155" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="178" priority="245" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",Q65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q65:Q67">
-    <cfRule type="containsText" dxfId="152" priority="151" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="177" priority="241" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",Q65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="152" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="176" priority="242" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",Q65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="153" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="175" priority="243" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",Q65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67 S60:S65 S29:S57 S21:S22 S17:S18 S14:S15 S9:S10 S2:S7">
-    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="174" priority="239" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="173" priority="240" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S67 S60:S65 S29:S57 S21:S22 S17:S18 S14:S15 S9:S10 S2:S7">
-    <cfRule type="containsText" dxfId="147" priority="146" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="172" priority="236" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="147" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="171" priority="237" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",S2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="170" priority="238" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",S2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:R65 R55:R57 R27:R53 R19:R24 R14:R15 R9:R10 R7 R2:R5">
-    <cfRule type="containsText" dxfId="144" priority="144" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="169" priority="234" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",R2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="145" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="168" priority="235" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:R65 R55:R57 R27:R53 R19:R24 R14:R15 R9:R10 R7 R2:R5">
-    <cfRule type="containsText" dxfId="142" priority="141" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="167" priority="231" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",R2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="142" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="166" priority="232" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",R2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="143" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="165" priority="233" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",R2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67 T65 T60:T63 T49:T52 T41 T39 T37 T31:T34 T17:T18 T7 T3:T4">
-    <cfRule type="containsText" dxfId="139" priority="139" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="164" priority="229" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="140" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="163" priority="230" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T67 T65 T60:T63 T49:T52 T41 T39 T37 T31:T34 T17:T18 T7 T3:T4">
-    <cfRule type="containsText" dxfId="137" priority="136" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="162" priority="226" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="137" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="161" priority="227" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",T3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="138" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="160" priority="228" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",T3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53:T59 T19:T30 T8:T16">
-    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="159" priority="224" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="158" priority="225" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T53:T59 T19:T30 T8:T16">
-    <cfRule type="containsText" dxfId="132" priority="131" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="157" priority="221" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="156" priority="222" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",T8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="155" priority="223" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",T8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U60:U67 U41:U57 U28:U39 U17:U18 U14:U15 U12 U9:U10 U7 U2:U5">
-    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="154" priority="219" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="153" priority="220" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U60:U67 U41:U57 U28:U39 U17:U18 U14:U15 U12 U9:U10 U7 U2:U5">
-    <cfRule type="containsText" dxfId="127" priority="126" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="152" priority="216" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="151" priority="217" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",U2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="150" priority="218" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",U2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L68:P72 R68:R72">
-    <cfRule type="containsText" dxfId="119" priority="59" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="149" priority="149" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",L68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="60" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="148" priority="150" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",L68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L68:P72 R68:R72">
-    <cfRule type="containsText" dxfId="117" priority="56" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="147" priority="146" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",L68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="57" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="146" priority="147" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",L68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="58" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="145" priority="148" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",L68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H72">
-    <cfRule type="containsText" dxfId="114" priority="49" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="144" priority="139" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="50" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="143" priority="140" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",H68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:H72">
-    <cfRule type="containsText" dxfId="112" priority="46" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="142" priority="136" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="47" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="141" priority="137" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="48" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="140" priority="138" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",H68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E72">
-    <cfRule type="containsText" dxfId="109" priority="54" operator="containsText" text="OK">
+  <conditionalFormatting sqref="E68:E77">
+    <cfRule type="containsText" dxfId="139" priority="144" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="55" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="138" priority="145" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E68:E72">
-    <cfRule type="containsText" dxfId="107" priority="51" operator="containsText" text="Network Signal Issue">
+  <conditionalFormatting sqref="E68:E77">
+    <cfRule type="containsText" dxfId="137" priority="141" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="52" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="136" priority="142" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",E68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="53" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="135" priority="143" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",E68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:D72 X68:XFD72 F68:G72">
-    <cfRule type="containsText" dxfId="104" priority="44" operator="containsText" text="OK">
+  <conditionalFormatting sqref="A68:D72 AA68:XFD72 F68:G72">
+    <cfRule type="containsText" dxfId="134" priority="134" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",A68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="45" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="133" priority="135" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",A68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A68:D72 X68:XFD72 F68:G72">
-    <cfRule type="containsText" dxfId="102" priority="41" operator="containsText" text="Network Signal Issue">
+  <conditionalFormatting sqref="A68:D72 AA68:XFD72 F68:G72">
+    <cfRule type="containsText" dxfId="132" priority="131" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",A68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="42" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="131" priority="132" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",A68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="43" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="130" priority="133" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",A68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:I72">
-    <cfRule type="containsText" dxfId="99" priority="39" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="129" priority="129" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",I68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="40" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="128" priority="130" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",I68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68:I72">
-    <cfRule type="containsText" dxfId="97" priority="36" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="127" priority="126" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",I68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="37" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",I68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="38" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",I68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:J72">
-    <cfRule type="containsText" dxfId="94" priority="34" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="124" priority="124" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",J68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="35" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="123" priority="125" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",J68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J68:J72">
-    <cfRule type="containsText" dxfId="92" priority="31" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="122" priority="121" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="32" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="121" priority="122" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",J68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="33" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="120" priority="123" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",J68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:K72">
-    <cfRule type="containsText" dxfId="89" priority="29" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="119" priority="119" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",K68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="30" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="118" priority="120" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",K68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68:K72">
-    <cfRule type="containsText" dxfId="87" priority="26" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="117" priority="116" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="27" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="116" priority="117" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",K68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="28" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="115" priority="118" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",K68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q68:Q72">
-    <cfRule type="containsText" dxfId="84" priority="24" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="114" priority="114" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",Q68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="113" priority="115" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",Q68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q68:Q72">
-    <cfRule type="containsText" dxfId="82" priority="21" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="112" priority="111" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",Q68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="22" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="111" priority="112" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",Q68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="23" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="110" priority="113" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",Q68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:S72">
-    <cfRule type="containsText" dxfId="79" priority="19" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="109" priority="109" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",S68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="20" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="108" priority="110" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",S68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S68:S72">
-    <cfRule type="containsText" dxfId="77" priority="16" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="107" priority="106" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",S68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="17" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",S68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="18" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",S68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T68:T72">
-    <cfRule type="containsText" dxfId="74" priority="14" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="104" priority="104" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",T68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="15" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="103" priority="105" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",T68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T68:T72">
-    <cfRule type="containsText" dxfId="72" priority="11" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="102" priority="101" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",T68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="12" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="101" priority="102" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",T68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="13" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="100" priority="103" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",T68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U68:U72">
-    <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="99" priority="99" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",U68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="10" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="98" priority="100" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",U68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U68:U72">
-    <cfRule type="containsText" dxfId="67" priority="6" operator="containsText" text="Network Signal Issue">
+    <cfRule type="containsText" dxfId="97" priority="96" operator="containsText" text="Network Signal Issue">
       <formula>NOT(ISERROR(SEARCH("Network Signal Issue",U68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="7" operator="containsText" text="Communication issue from server">
+    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="Communication issue from server">
       <formula>NOT(ISERROR(SEARCH("Communication issue from server",U68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="8" operator="containsText" text="Communication issue with module">
+    <cfRule type="containsText" dxfId="95" priority="98" operator="containsText" text="Communication issue with module">
       <formula>NOT(ISERROR(SEARCH("Communication issue with module",U68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V65:V72 V59:V63 V29:V57 V19:V27 V17 V14:V15 V9:V10 V7 V2:V5">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="94" priority="94" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="MCB OFF">
+    <cfRule type="containsText" dxfId="93" priority="95" operator="containsText" text="MCB OFF">
       <formula>NOT(ISERROR(SEARCH("MCB OFF",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V65:V72 V59:V63 V29:V57 V19:V27 V17 V14:V15 V9:V10 V7 V2:V5">
+    <cfRule type="containsText" dxfId="92" priority="91" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",V2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="91" priority="92" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",V2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="93" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",V2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73:P77 R73:R77">
+    <cfRule type="containsText" dxfId="84" priority="84" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",L73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="83" priority="85" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",L73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L73:P77 R73:R77">
+    <cfRule type="containsText" dxfId="82" priority="81" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",L73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="82" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",L73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="83" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",L73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H77">
+    <cfRule type="containsText" dxfId="79" priority="74" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="75" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73:H77">
+    <cfRule type="containsText" dxfId="77" priority="71" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="72" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",H73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",H73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:D77 AA73:XFD77 F73:G77">
+    <cfRule type="containsText" dxfId="69" priority="69" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",A73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="70" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",A73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:D77 AA73:XFD77 F73:G77">
+    <cfRule type="containsText" dxfId="67" priority="66" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",A73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",A73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",A73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I77">
+    <cfRule type="containsText" dxfId="64" priority="64" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",I73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="65" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",I73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:I77">
+    <cfRule type="containsText" dxfId="62" priority="61" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",I73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="62" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",I73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="63" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",I73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73:J77">
+    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",J73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",J73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J73:J77">
+    <cfRule type="containsText" dxfId="57" priority="56" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",J73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",J73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="58" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",J73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:K77">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",K73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",K73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K73:K77">
+    <cfRule type="containsText" dxfId="52" priority="51" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",K73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="52" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",K73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="53" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",K73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73:Q77">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",Q73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",Q73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q73:Q77">
+    <cfRule type="containsText" dxfId="47" priority="46" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",Q73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",Q73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",Q73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S73:S77">
+    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",S73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",S73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S73:S77">
+    <cfRule type="containsText" dxfId="42" priority="41" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",S73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="42" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",S73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="43" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",S73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T73:T77">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",T73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",T73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T73:T77">
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",T73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",T73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="38" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",T73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U73:U77">
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",U73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",U73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U73:U77">
+    <cfRule type="containsText" dxfId="32" priority="31" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",U73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",U73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",U73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V73:V77">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",V73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",V73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V73:V77">
+    <cfRule type="containsText" dxfId="27" priority="26" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",V73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",V73)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",V73)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W77 W74:W75 W70:W72 W65:W68 W59:W63 W29:W57 W20:W22 W17 W14:W15 W7:W10 W2:W5">
+    <cfRule type="containsText" dxfId="24" priority="24" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",W2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W77 W74:W75 W70:W72 W65:W68 W59:W63 W29:W57 W20:W22 W17 W14:W15 W7:W10 W2:W5">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",W2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",W2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X74:X76 X70:X72 X67:X68 X29:X65 X20:X22 X17 X13:X15 X7:X10 X2:X5">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",X2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X74:X76 X70:X72 X67:X68 X29:X65 X20:X22 X17 X13:X15 X7:X10 X2:X5">
+    <cfRule type="containsText" dxfId="17" priority="16" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",X2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="18" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",X2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y73:Y76 Y67:Y71 Y60:Y65 Y29:Y58 Y25:Y26 Y20:Y22 Y17 Y14:Y15 Y7:Y10 Y2:Y5">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",Y2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y73:Y76 Y67:Y71 Y60:Y65 Y29:Y58 Y25:Y26 Y20:Y22 Y17 Y14:Y15 Y7:Y10 Y2:Y5">
+    <cfRule type="containsText" dxfId="12" priority="11" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",Y2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y13">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",Y11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y11:Y13">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Network Signal Issue">
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Communication issue from server">
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",Y11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Communication issue with module">
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",Y11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z73:Z77 Z67:Z71 Z59:Z65 Z40:Z57 Z29:Z38 Z19:Z27 Z17 Z14:Z15 Z7:Z10 Z2:Z5">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",Z2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="MCB OFF">
+      <formula>NOT(ISERROR(SEARCH("MCB OFF",Z2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z73:Z77 Z67:Z71 Z59:Z65 Z40:Z57 Z29:Z38 Z19:Z27 Z17 Z14:Z15 Z7:Z10 Z2:Z5">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Network Signal Issue">
-      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",V2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Network Signal Issue",Z2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Communication issue from server">
-      <formula>NOT(ISERROR(SEARCH("Communication issue from server",V2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Communication issue from server",Z2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Communication issue with module">
-      <formula>NOT(ISERROR(SEARCH("Communication issue with module",V2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Communication issue with module",Z2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11590,7 +12988,7 @@
   <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
